--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value308.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value308.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.031586630512601</v>
+        <v>1.106687307357788</v>
       </c>
       <c r="B1">
-        <v>1.065970625058219</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.173413134124706</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.73520700097736</v>
+        <v>1.75207781791687</v>
       </c>
       <c r="E1">
-        <v>3.933509374712454</v>
+        <v>1.137235999107361</v>
       </c>
     </row>
   </sheetData>
